--- a/European_Exposure_Model_v0.2_Sources_2020_01_31.xlsx
+++ b/European_Exposure_Model_v0.2_Sources_2020_01_31.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/1-Work/2-Eucentre/6-SERA/ JRA4/ Task1_Exposure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F169C409-CABF-814D-A4D6-2DDEC446CDD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A80FDB7-B09B-9A4F-9D32-46D138885078}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="460" windowWidth="27840" windowHeight="15400" xr2:uid="{7A38AA0B-A6F1-2046-8C9F-20169C13223F}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="15400" xr2:uid="{7A38AA0B-A6F1-2046-8C9F-20169C13223F}"/>
   </bookViews>
   <sheets>
     <sheet name="European Exposure Model v0.2" sheetId="1" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1082,6 +1082,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF660099"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1369,6 +1375,206 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,230 +1588,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1925,7 +1931,10 @@
   <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,3012 +1959,3012 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="22" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="22" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="32" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="32" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-    </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46" t="s">
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="33" t="str">
+      <c r="E12" s="23" t="str">
         <f>HYPERLINK("http://www.estadistica.ad","http://www.estadistica.ad")</f>
         <v>http://www.estadistica.ad</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="34"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="40" t="str">
+      <c r="E14" s="30" t="str">
         <f>HYPERLINK("http://www.statistik.at","http://www.statistik.at")</f>
         <v>http://www.statistik.at</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="61"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="34"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="30" t="str">
         <f>HYPERLINK("http://www.belstat.gov.by","http://www.belstat.gov.by")</f>
         <v>http://www.belstat.gov.by</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="52" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="22" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="24"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="30" t="str">
         <f>HYPERLINK("http://census2011.fgov.be","http://census2011.fgov.be")</f>
         <v>http://census2011.fgov.be</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="62" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="65" t="s">
+      <c r="K20" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="33" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="24"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="61"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="62" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="24"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="30" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="33" t="str">
+      <c r="H24" s="23" t="str">
         <f>HYPERLINK("http://www.nsi.bg","http://www.nsi.bg")</f>
         <v>http://www.nsi.bg</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="24"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="30" t="str">
         <f>HYPERLINK("https://www.dzs.hr","https://www.dzs.hr")</f>
         <v>https://www.dzs.hr</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="61"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="22" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="24"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="61"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="24"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="62" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="24"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="30" t="str">
         <f>HYPERLINK("https://www.czso.cz","https://www.czso.cz")</f>
         <v>https://www.czso.cz</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="61"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="22" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="24"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="22" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="24"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="30" t="str">
         <f>HYPERLINK("https://www.dst.dk","https://www.dst.dk")</f>
         <v>https://www.dst.dk</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="43"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="22" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="24"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="22" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="24"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="40" t="str">
+      <c r="E36" s="30" t="str">
         <f>HYPERLINK("https://www.stat.ee","https://www.stat.ee")</f>
         <v>https://www.stat.ee</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="22" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="24"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="22" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="24"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="73" t="str">
+      <c r="E39" s="58" t="str">
         <f>HYPERLINK("https://www.stat.fi","https://www.stat.fi")</f>
         <v>https://www.stat.fi</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="22" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="24"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="22" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="24"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="61"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="49"/>
     </row>
     <row r="43" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="22" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="24"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="15"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="62" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="67" t="s">
+      <c r="D44" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="24"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="15"/>
     </row>
     <row r="45" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="40" t="str">
+      <c r="E45" s="30" t="str">
         <f>HYPERLINK("https://ergebnisse.zensus2011.de","https://ergebnisse.zensus2011.de")</f>
         <v>https://ergebnisse.zensus2011.de</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="61"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="49"/>
     </row>
     <row r="46" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="68" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="24"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="15"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="68" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="24"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="15"/>
     </row>
     <row r="48" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="40" t="str">
+      <c r="E48" s="30" t="str">
         <f>HYPERLINK("https://www.gibraltar.gov.gi","https://www.gibraltar.gov.gi")</f>
         <v>https://www.gibraltar.gov.gi</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="J48" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="K48" s="65" t="s">
+      <c r="K48" s="52" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="22" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="24"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="15"/>
     </row>
     <row r="50" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G50" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H50" s="40" t="str">
+      <c r="H50" s="30" t="str">
         <f>HYPERLINK("http://www.statistics.gr","http://www.statistics.gr")</f>
         <v>http://www.statistics.gr</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="61"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="49"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="22" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="24"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="15"/>
     </row>
     <row r="52" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="40" t="str">
+      <c r="E52" s="30" t="str">
         <f>HYPERLINK("https://www.ksh.hu","https://www.ksh.hu")</f>
         <v>https://www.ksh.hu</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="90" t="s">
+      <c r="G52" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="61"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="49"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="62" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="67" t="s">
+      <c r="D53" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="33" t="str">
+      <c r="H53" s="23" t="str">
         <f>HYPERLINK("https://www.ksh.hu","https://www.ksh.hu")</f>
         <v>https://www.ksh.hu</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="24"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="68" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="24"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="74" t="s">
+      <c r="E55" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="I55" s="41"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="61"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="49"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="75" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="24"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="15"/>
     </row>
     <row r="57" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="40" t="str">
+      <c r="E57" s="30" t="str">
         <f>HYPERLINK("http://www.cso.ie","http://www.cso.ie")</f>
         <v>http://www.cso.ie</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="41"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="43"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="22" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="24"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="15"/>
     </row>
     <row r="59" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="40" t="str">
+      <c r="E59" s="30" t="str">
         <f>HYPERLINK("https://www.gov.im","https://www.gov.im")</f>
         <v>https://www.gov.im</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G59" s="39" t="s">
+      <c r="G59" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H59" s="40" t="s">
+      <c r="H59" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="I59" s="41" t="s">
+      <c r="I59" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="J59" s="39" t="s">
+      <c r="J59" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="K59" s="65" t="s">
+      <c r="K59" s="52" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="22" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="24"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="15"/>
     </row>
     <row r="61" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="40" t="str">
+      <c r="E61" s="30" t="str">
         <f>HYPERLINK("https://www.istat.it","https://www.istat.it")</f>
         <v>https://www.istat.it</v>
       </c>
-      <c r="F61" s="38" t="s">
+      <c r="F61" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="G61" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="I61" s="41"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="61"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="49"/>
     </row>
     <row r="62" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="22" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H62" s="33" t="str">
+      <c r="H62" s="23" t="str">
         <f>HYPERLINK("https://ec.europa.eu/energy/en/eu-buildings-database http://bpie.eu/wp-content/uploads/2015/10/HR_EU_B_under_microscope_study.pdf","https://ec.europa.eu/energy/en/eu-buildings-database http://bpie.eu/wp-content/uploads/2015/10/HR_EU_B_under_microscope_study.pdf")</f>
         <v>https://ec.europa.eu/energy/en/eu-buildings-database http://bpie.eu/wp-content/uploads/2015/10/HR_EU_B_under_microscope_study.pdf</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="24"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="15"/>
     </row>
     <row r="63" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="40" t="str">
+      <c r="E63" s="30" t="str">
         <f>HYPERLINK("http://ask.rks-gov.net","http://ask.rks-gov.net")</f>
         <v>http://ask.rks-gov.net</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F63" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="I63" s="41" t="s">
+      <c r="I63" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J63" s="39" t="s">
+      <c r="J63" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="52" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="29" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="22" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H64" s="76" t="s">
+      <c r="H64" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="24"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="15"/>
     </row>
     <row r="65" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E65" s="40" t="str">
+      <c r="E65" s="30" t="str">
         <f>HYPERLINK("http://www.csb.gov.lv","http://www.csb.gov.lv")</f>
         <v>http://www.csb.gov.lv</v>
       </c>
-      <c r="F65" s="38" t="s">
+      <c r="F65" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="G65" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H65" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="43"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="22" t="s">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="33" t="str">
+      <c r="H66" s="23" t="str">
         <f>HYPERLINK("http://www.csb.gov.lv","http://www.csb.gov.lv")</f>
         <v>http://www.csb.gov.lv</v>
       </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="24"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="15"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="22" t="s">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="24"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="15"/>
     </row>
     <row r="68" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F68" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="G68" s="39" t="s">
+      <c r="G68" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H68" s="40" t="s">
+      <c r="H68" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="I68" s="41" t="s">
+      <c r="I68" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="J68" s="39" t="s">
+      <c r="J68" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="K68" s="65" t="s">
+      <c r="K68" s="52" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="22" t="s">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="24"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="15"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="22" t="s">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="24"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="15"/>
     </row>
     <row r="71" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="40" t="str">
+      <c r="E71" s="30" t="str">
         <f>HYPERLINK("https://osp.stat.gov.lt ")</f>
         <v xml:space="preserve">https://osp.stat.gov.lt </v>
       </c>
-      <c r="F71" s="38" t="s">
+      <c r="F71" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="40" t="s">
+      <c r="H71" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I71" s="41"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="43"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="33"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="22" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="32"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="24"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="15"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="22" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="24"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="15"/>
     </row>
     <row r="74" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E74" s="40" t="str">
+      <c r="E74" s="30" t="str">
         <f>HYPERLINK("http://www.statistiques.public.lu","http://www.statistiques.public.lu")</f>
         <v>http://www.statistiques.public.lu</v>
       </c>
-      <c r="F74" s="38" t="s">
+      <c r="F74" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="39" t="s">
+      <c r="G74" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="40" t="s">
+      <c r="H74" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="43"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="33"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="22" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H75" s="33" t="str">
+      <c r="H75" s="23" t="str">
         <f>HYPERLINK("http://www.statistiques.public.lu","http://www.statistiques.public.lu")</f>
         <v>http://www.statistiques.public.lu</v>
       </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="24"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="15"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="22" t="s">
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="24"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="40" t="str">
+      <c r="E77" s="30" t="str">
         <f>HYPERLINK("https://nso.gov.mt","https://nso.gov.mt")</f>
         <v>https://nso.gov.mt</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G77" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="40" t="s">
+      <c r="H77" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I77" s="41" t="s">
+      <c r="I77" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="J77" s="39" t="s">
+      <c r="J77" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="K77" s="61" t="s">
+      <c r="K77" s="49" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="62" t="s">
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="67" t="s">
+      <c r="D78" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="64" t="s">
+      <c r="E78" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="G78" s="25" t="s">
+      <c r="G78" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="33" t="str">
+      <c r="H78" s="23" t="str">
         <f>HYPERLINK("https://nso.gov.mt","https://nso.gov.mt")</f>
         <v>https://nso.gov.mt</v>
       </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="24"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="15"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="77" t="s">
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="67" t="s">
+      <c r="D79" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="64"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="24"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="15"/>
     </row>
     <row r="80" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="D80" s="39" t="s">
+      <c r="D80" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="40" t="str">
+      <c r="E80" s="30" t="str">
         <f>HYPERLINK("http://www.statistica.md","http://www.statistica.md")</f>
         <v>http://www.statistica.md</v>
       </c>
-      <c r="F80" s="38" t="s">
+      <c r="F80" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="G80" s="39" t="s">
+      <c r="G80" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H80" s="40" t="s">
+      <c r="H80" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="I80" s="41"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="61"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="49"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="24"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="15"/>
     </row>
     <row r="82" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="39" t="s">
+      <c r="D82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="40" t="str">
+      <c r="E82" s="30" t="str">
         <f>HYPERLINK("http://www.monacostatistics.mc","http://www.monacostatistics.mc")</f>
         <v>http://www.monacostatistics.mc</v>
       </c>
-      <c r="F82" s="38" t="s">
+      <c r="F82" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G82" s="39" t="s">
+      <c r="G82" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H82" s="40" t="s">
+      <c r="H82" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="I82" s="41" t="s">
+      <c r="I82" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="J82" s="39" t="s">
+      <c r="J82" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K82" s="65" t="s">
+      <c r="K82" s="52" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="22" t="s">
+      <c r="A83" s="42"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="24"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="15"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="22" t="s">
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="E84" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="24"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="15"/>
     </row>
     <row r="85" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E85" s="40" t="str">
+      <c r="E85" s="30" t="str">
         <f>HYPERLINK("http://monstat.org/cg","http://monstat.org/cg")</f>
         <v>http://monstat.org/cg</v>
       </c>
-      <c r="F85" s="38" t="s">
+      <c r="F85" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H85" s="40" t="s">
+      <c r="H85" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="61"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="49"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="24"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="15"/>
     </row>
     <row r="87" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E87" s="74" t="s">
+      <c r="E87" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="F87" s="38" t="s">
+      <c r="F87" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G87" s="39" t="s">
+      <c r="G87" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H87" s="40" t="s">
+      <c r="H87" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="I87" s="41"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="61"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="49"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="75" t="s">
+      <c r="A88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="25" t="s">
+      <c r="G88" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I88" s="32"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="24"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="D89" s="39" t="s">
+      <c r="D89" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="40" t="str">
+      <c r="E89" s="30" t="str">
         <f>HYPERLINK("https://www.ssb.no","https://www.ssb.no")</f>
         <v>https://www.ssb.no</v>
       </c>
-      <c r="F89" s="38" t="s">
+      <c r="F89" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="G89" s="39" t="s">
+      <c r="G89" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H89" s="40" t="s">
+      <c r="H89" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I89" s="41"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="61"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="49"/>
     </row>
     <row r="90" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="22" t="s">
+      <c r="A90" s="42"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F90" s="68" t="s">
+      <c r="F90" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G90" s="25" t="s">
+      <c r="G90" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I90" s="32"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="24"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="15"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D91" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E91" s="40" t="str">
+      <c r="E91" s="30" t="str">
         <f>HYPERLINK("http://stat.gov.pl","http://stat.gov.pl")</f>
         <v>http://stat.gov.pl</v>
       </c>
-      <c r="F91" s="38" t="s">
+      <c r="F91" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="39" t="s">
+      <c r="G91" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H91" s="40" t="s">
+      <c r="H91" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I91" s="41"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="43"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="33"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="22" t="s">
+      <c r="A92" s="42"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G92" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H92" s="33" t="s">
+      <c r="H92" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="I92" s="32"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="24"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="15"/>
     </row>
     <row r="93" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="22" t="s">
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F93" s="68" t="s">
+      <c r="F93" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G93" s="25" t="s">
+      <c r="G93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H93" s="33" t="s">
+      <c r="H93" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I93" s="32"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="24"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="15"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="62" t="s">
+      <c r="A94" s="42"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="D94" s="67" t="s">
+      <c r="D94" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E94" s="64" t="s">
+      <c r="E94" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="F94" s="68"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="24"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="15"/>
     </row>
     <row r="95" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="39" t="s">
+      <c r="D95" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E95" s="40" t="str">
+      <c r="E95" s="30" t="str">
         <f>HYPERLINK("https://ine.pt","https://ine.pt")</f>
         <v>https://ine.pt</v>
       </c>
-      <c r="F95" s="38" t="s">
+      <c r="F95" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G95" s="39" t="s">
+      <c r="G95" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="H95" s="40" t="s">
+      <c r="H95" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="I95" s="41"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="61"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="49"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="49" t="s">
+      <c r="A96" s="42"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G96" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I96" s="32"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="24"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="15"/>
     </row>
     <row r="97" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A97" s="36" t="s">
+      <c r="A97" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="C97" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="40" t="str">
+      <c r="E97" s="30" t="str">
         <f>HYPERLINK("http://www.stat.gov.mk","http://www.stat.gov.mk")</f>
         <v>http://www.stat.gov.mk</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="H97" s="40" t="str">
+      <c r="H97" s="30" t="str">
         <f>HYPERLINK("http://www.stat.gov.mk","http://www.stat.gov.mk")</f>
         <v>http://www.stat.gov.mk</v>
       </c>
-      <c r="I97" s="41" t="s">
+      <c r="I97" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="J97" s="39" t="s">
+      <c r="J97" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="K97" s="65" t="s">
+      <c r="K97" s="52" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="62" t="s">
+      <c r="A98" s="42"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D98" s="67" t="s">
+      <c r="D98" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="F98" s="22"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="24"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="15"/>
     </row>
     <row r="99" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A99" s="36" t="s">
+      <c r="A99" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="39" t="s">
+      <c r="D99" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E99" s="40" t="str">
+      <c r="E99" s="30" t="str">
         <f>HYPERLINK("http://www.recensamantromania.ro","http://www.recensamantromania.ro")</f>
         <v>http://www.recensamantromania.ro</v>
       </c>
-      <c r="F99" s="38" t="s">
+      <c r="F99" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="39" t="s">
+      <c r="G99" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="40" t="s">
+      <c r="H99" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I99" s="41"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="61"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="49"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="22" t="s">
+      <c r="A100" s="42"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G100" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H100" s="33" t="s">
+      <c r="H100" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="I100" s="32"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="24"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="15"/>
     </row>
     <row r="101" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A101" s="36" t="s">
+      <c r="A101" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="C101" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="39" t="s">
+      <c r="D101" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E101" s="40" t="str">
+      <c r="E101" s="30" t="str">
         <f>HYPERLINK("http://webrzs.stat.gov.rs","http://webrzs.stat.gov.rs")</f>
         <v>http://webrzs.stat.gov.rs</v>
       </c>
-      <c r="F101" s="38" t="s">
+      <c r="F101" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="G101" s="39" t="s">
+      <c r="G101" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="H101" s="40" t="s">
+      <c r="H101" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="I101" s="41"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="61"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="49"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="54"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="22" t="s">
+      <c r="A102" s="42"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="64" t="s">
+      <c r="E102" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F102" s="22"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="24"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="15"/>
     </row>
     <row r="103" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="C103" s="38" t="s">
+      <c r="C103" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D103" s="39" t="s">
+      <c r="D103" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E103" s="40" t="str">
+      <c r="E103" s="30" t="str">
         <f>HYPERLINK("https://bit.ly/2GhTgeL","https://bit.ly/2GhTgeL")</f>
         <v>https://bit.ly/2GhTgeL</v>
       </c>
-      <c r="F103" s="38" t="s">
+      <c r="F103" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="G103" s="39" t="s">
+      <c r="G103" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H103" s="40" t="s">
+      <c r="H103" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="I103" s="41"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="61"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="49"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="22" t="s">
+      <c r="A104" s="42"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G104" s="25" t="s">
+      <c r="G104" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I104" s="32"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="24"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="15"/>
     </row>
     <row r="105" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A105" s="89" t="s">
+      <c r="A105" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="40" t="str">
+      <c r="E105" s="30" t="str">
         <f>HYPERLINK("http://www.stat.si/","http://www.stat.si/")</f>
         <v>http://www.stat.si/</v>
       </c>
-      <c r="F105" s="38" t="s">
+      <c r="F105" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="39" t="s">
+      <c r="G105" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="40" t="s">
+      <c r="H105" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I105" s="41"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="61"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="49"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="54"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="22" t="s">
+      <c r="A106" s="42"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="G106" s="25" t="s">
+      <c r="G106" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H106" s="33" t="s">
+      <c r="H106" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="I106" s="32"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="24"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="15"/>
     </row>
     <row r="107" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="39" t="s">
+      <c r="D107" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E107" s="40" t="str">
+      <c r="E107" s="30" t="str">
         <f>HYPERLINK("http://www.ine.es","http://www.ine.es")</f>
         <v>http://www.ine.es</v>
       </c>
-      <c r="F107" s="38" t="s">
+      <c r="F107" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="39" t="s">
+      <c r="G107" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H107" s="40" t="s">
+      <c r="H107" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I107" s="41"/>
-      <c r="J107" s="39"/>
-      <c r="K107" s="61"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="49"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="54"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="62" t="s">
+      <c r="A108" s="42"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D108" s="67" t="s">
+      <c r="D108" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="64" t="s">
+      <c r="E108" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="G108" s="25" t="s">
+      <c r="G108" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H108" s="33" t="s">
+      <c r="H108" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="I108" s="32"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="24"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="53"/>
+      <c r="K108" s="15"/>
     </row>
     <row r="109" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D109" s="39" t="s">
+      <c r="D109" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E109" s="40" t="str">
+      <c r="E109" s="30" t="str">
         <f>HYPERLINK("http://www.statistikdatabasen.scb.se","http://www.statistikdatabasen.scb.se")</f>
         <v>http://www.statistikdatabasen.scb.se</v>
       </c>
-      <c r="F109" s="38" t="s">
+      <c r="F109" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="39" t="s">
+      <c r="G109" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="40" t="s">
+      <c r="H109" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I109" s="41"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="43"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="33"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="54"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="22" t="s">
+      <c r="A110" s="42"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F110" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G110" s="25" t="s">
+      <c r="G110" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H110" s="78" t="s">
+      <c r="H110" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="I110" s="32"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="24"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="15"/>
     </row>
     <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="54"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="22" t="s">
+      <c r="A111" s="42"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E111" s="69" t="s">
+      <c r="E111" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="22"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="79"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="24"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="53"/>
+      <c r="K111" s="15"/>
     </row>
     <row r="112" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="D112" s="39" t="s">
+      <c r="D112" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E112" s="40" t="s">
+      <c r="E112" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="F112" s="38" t="s">
+      <c r="F112" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="G112" s="39" t="s">
+      <c r="G112" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H112" s="40" t="s">
+      <c r="H112" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="I112" s="41"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="61"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="49"/>
     </row>
     <row r="113" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A113" s="54"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="33" t="s">
+      <c r="A113" s="42"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F113" s="80" t="s">
+      <c r="F113" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H113" s="33" t="s">
+      <c r="H113" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I113" s="32"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="24"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="15"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="54"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="33" t="s">
+      <c r="A114" s="42"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="F114" s="68"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="24"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="53"/>
+      <c r="K114" s="15"/>
     </row>
     <row r="115" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A115" s="36" t="s">
+      <c r="A115" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D115" s="39" t="s">
+      <c r="D115" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E115" s="40" t="str">
+      <c r="E115" s="30" t="str">
         <f>HYPERLINK("https://biruni.tuik.gov.tr","https://biruni.tuik.gov.tr")</f>
         <v>https://biruni.tuik.gov.tr</v>
       </c>
-      <c r="F115" s="38"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="61"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="49"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="54"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="24"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="15"/>
     </row>
     <row r="117" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A117" s="36" t="s">
+      <c r="A117" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D117" s="39" t="s">
+      <c r="D117" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E117" s="40" t="str">
+      <c r="E117" s="30" t="str">
         <f>HYPERLINK("http://www.ukrstat.gov.ua","http://www.ukrstat.gov.ua")</f>
         <v>http://www.ukrstat.gov.ua</v>
       </c>
-      <c r="F117" s="38" t="s">
+      <c r="F117" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G117" s="39" t="s">
+      <c r="G117" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="H117" s="40" t="s">
+      <c r="H117" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="I117" s="41" t="s">
+      <c r="I117" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="J117" s="39" t="s">
+      <c r="J117" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="K117" s="40" t="s">
+      <c r="K117" s="30" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="54"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="22" t="s">
+      <c r="A118" s="42"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E118" s="33" t="s">
+      <c r="E118" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F118" s="22"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="24"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="53"/>
+      <c r="K118" s="15"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="32" t="s">
+      <c r="A119" s="42"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E119" s="33" t="s">
+      <c r="E119" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="F119" s="22"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="24"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="53"/>
+      <c r="K119" s="15"/>
     </row>
     <row r="120" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A120" s="81" t="s">
+      <c r="A120" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="39" t="s">
+      <c r="D120" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E120" s="40" t="str">
+      <c r="E120" s="30" t="str">
         <f>HYPERLINK("https://www.ons.gov.uk","https://www.ons.gov.uk")</f>
         <v>https://www.ons.gov.uk</v>
       </c>
-      <c r="F120" s="38" t="s">
+      <c r="F120" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="39" t="s">
+      <c r="G120" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="H120" s="40" t="s">
+      <c r="H120" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I120" s="41"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="43"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="66"/>
+      <c r="K120" s="33"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="83"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="32" t="s">
+      <c r="A121" s="67"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E121" s="33" t="s">
+      <c r="E121" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F121" s="30" t="s">
+      <c r="F121" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H121" s="33" t="s">
+      <c r="H121" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="I121" s="54"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="34"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="24"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="84"/>
-      <c r="B122" s="84"/>
-      <c r="C122" s="49" t="s">
+      <c r="A122" s="68"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E122" s="51" t="s">
+      <c r="E122" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F122" s="85"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="87"/>
-      <c r="J122" s="88"/>
-      <c r="K122" s="10"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
